--- a/team_specific_matrix/Biblical Stud. (TX)_B.xlsx
+++ b/team_specific_matrix/Biblical Stud. (TX)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.3103448275862069</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.574468085106383</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3620689655172414</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
   </sheetData>
